--- a/results/real_data_freelancer_0.2_opt_constrained/k=0.2/ROI_greedy/dataset_11/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/real_data_freelancer_0.2_opt_constrained/k=0.2/ROI_greedy/dataset_11/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_freelancer_0.2_opt_constrained\k=0.2\ROI_greedy\dataset_11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA43EAB-29C5-441A-A683-F8DE742878E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_11_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +229,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +330,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +382,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +702,7 @@
         <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.8860759493670886</v>
+        <v>0.88607594936708856</v>
       </c>
       <c r="O2">
         <v>144</v>
@@ -612,19 +711,19 @@
         <v>65</v>
       </c>
       <c r="Q2">
-        <v>0.7954260296803636</v>
+        <v>0.79542602968036358</v>
       </c>
       <c r="R2">
-        <v>27.29730807077637</v>
+        <v>27.297308070776371</v>
       </c>
       <c r="S2">
         <v>2.215384615384616</v>
       </c>
       <c r="T2">
-        <v>2.428571428571428</v>
+        <v>2.4285714285714279</v>
       </c>
       <c r="U2">
-        <v>0.8873031950009027</v>
+        <v>0.88730319500090271</v>
       </c>
       <c r="V2">
         <v>26.52214344495577</v>
@@ -639,10 +738,10 @@
         <v>860</v>
       </c>
       <c r="Z2">
-        <v>1.01046511627907</v>
+        <v>1.0104651162790701</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +782,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.8493150684931506</v>
+        <v>0.84931506849315064</v>
       </c>
       <c r="O3">
         <v>114</v>
@@ -695,7 +794,7 @@
         <v>1.022626381690187</v>
       </c>
       <c r="R3">
-        <v>31.07231835070231</v>
+        <v>31.072318350702311</v>
       </c>
       <c r="S3">
         <v>2.780487804878049</v>
@@ -707,7 +806,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="V3">
-        <v>27.94301905128859</v>
+        <v>27.943019051288591</v>
       </c>
       <c r="W3">
         <v>771</v>
@@ -722,7 +821,7 @@
         <v>1.014473684210526</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +862,7 @@
         <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.8955223880597015</v>
+        <v>0.89552238805970152</v>
       </c>
       <c r="O4">
         <v>127</v>
@@ -772,22 +871,22 @@
         <v>60</v>
       </c>
       <c r="Q4">
-        <v>0.7498425242364906</v>
+        <v>0.74984252423649056</v>
       </c>
       <c r="R4">
         <v>22.00944854581056</v>
       </c>
       <c r="S4">
-        <v>2.116666666666667</v>
+        <v>2.1166666666666671</v>
       </c>
       <c r="T4">
-        <v>2.578947368421053</v>
+        <v>2.5789473684210531</v>
       </c>
       <c r="U4">
         <v>0.9473813189441862</v>
       </c>
       <c r="V4">
-        <v>23.99950988012093</v>
+        <v>23.999509880120929</v>
       </c>
       <c r="W4">
         <v>871</v>
@@ -799,10 +898,10 @@
         <v>864</v>
       </c>
       <c r="Z4">
-        <v>1.008101851851852</v>
+        <v>1.0081018518518521</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -852,10 +951,10 @@
         <v>53</v>
       </c>
       <c r="Q5">
-        <v>0.9496890122760031</v>
+        <v>0.94968901227600311</v>
       </c>
       <c r="R5">
-        <v>33.66648234937183</v>
+        <v>33.666482349371833</v>
       </c>
       <c r="S5">
         <v>2.584905660377359</v>
@@ -867,7 +966,7 @@
         <v>1.09861228866811</v>
       </c>
       <c r="V5">
-        <v>35.15412074194372</v>
+        <v>35.154120741943721</v>
       </c>
       <c r="W5">
         <v>915</v>
@@ -879,10 +978,10 @@
         <v>909</v>
       </c>
       <c r="Z5">
-        <v>1.006600660066007</v>
+        <v>1.0066006600660069</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1022,7 @@
         <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.9411764705882353</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="O6">
         <v>110</v>
@@ -932,13 +1031,13 @@
         <v>42</v>
       </c>
       <c r="Q6">
-        <v>0.9628107475090479</v>
+        <v>0.96281074750904794</v>
       </c>
       <c r="R6">
-        <v>27.56194860461999</v>
+        <v>27.561948604619989</v>
       </c>
       <c r="S6">
-        <v>2.619047619047619</v>
+        <v>2.6190476190476191</v>
       </c>
       <c r="T6">
         <v>2.882352941176471</v>
@@ -959,10 +1058,10 @@
         <v>787</v>
       </c>
       <c r="Z6">
-        <v>1.005082592121982</v>
+        <v>1.0050825921219819</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1012,22 +1111,22 @@
         <v>37</v>
       </c>
       <c r="Q7">
-        <v>1.15976671182144</v>
+        <v>1.1597667118214401</v>
       </c>
       <c r="R7">
-        <v>38.08863166260671</v>
+        <v>38.088631662606709</v>
       </c>
       <c r="S7">
         <v>3.189189189189189</v>
       </c>
       <c r="T7">
-        <v>3.551724137931035</v>
+        <v>3.5517241379310351</v>
       </c>
       <c r="U7">
-        <v>1.267433158243162</v>
+        <v>1.2674331582431619</v>
       </c>
       <c r="V7">
-        <v>37.24443841094831</v>
+        <v>37.244438410948312</v>
       </c>
       <c r="W7">
         <v>899</v>
@@ -1042,7 +1141,7 @@
         <v>1.007847533632287</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1182,7 @@
         <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.9545454545454546</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="O8">
         <v>131</v>
@@ -1092,22 +1191,22 @@
         <v>65</v>
       </c>
       <c r="Q8">
-        <v>0.7008100533055144</v>
+        <v>0.70081005330551438</v>
       </c>
       <c r="R8">
-        <v>20.44734653514156</v>
+        <v>20.447346535141559</v>
       </c>
       <c r="S8">
-        <v>2.015384615384615</v>
+        <v>2.0153846153846149</v>
       </c>
       <c r="T8">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="U8">
-        <v>0.8153648132841944</v>
+        <v>0.81536481328419441</v>
       </c>
       <c r="V8">
-        <v>22.23175933579028</v>
+        <v>22.231759335790279</v>
       </c>
       <c r="W8">
         <v>756</v>
@@ -1119,10 +1218,10 @@
         <v>753</v>
       </c>
       <c r="Z8">
-        <v>1.00398406374502</v>
+        <v>1.0039840637450199</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1262,7 @@
         <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.9433962264150944</v>
+        <v>0.94339622641509435</v>
       </c>
       <c r="O9">
         <v>143</v>
@@ -1172,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="Q9">
-        <v>1.351926717615683</v>
+        <v>1.3519267176156831</v>
       </c>
       <c r="R9">
-        <v>55.97871144821973</v>
+        <v>55.978711448219727</v>
       </c>
       <c r="S9">
-        <v>3.864864864864865</v>
+        <v>3.8648648648648649</v>
       </c>
       <c r="T9">
-        <v>5.347826086956522</v>
+        <v>5.3478260869565224</v>
       </c>
       <c r="U9">
-        <v>1.676690139443268</v>
+        <v>1.6766901394432681</v>
       </c>
       <c r="V9">
-        <v>61.43612679280484</v>
+        <v>61.436126792804842</v>
       </c>
       <c r="W9">
         <v>725</v>
@@ -1202,7 +1301,7 @@
         <v>1.008344923504868</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1342,7 @@
         <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.8354430379746836</v>
+        <v>0.83544303797468356</v>
       </c>
       <c r="O10">
         <v>123</v>
@@ -1255,7 +1354,7 @@
         <v>1.027994721454156</v>
       </c>
       <c r="R10">
-        <v>33.76823225601712</v>
+        <v>33.768232256017122</v>
       </c>
       <c r="S10">
         <v>2.795454545454545</v>
@@ -1264,7 +1363,7 @@
         <v>3.2</v>
       </c>
       <c r="U10">
-        <v>1.163150809805681</v>
+        <v>1.1631508098056811</v>
       </c>
       <c r="V10">
         <v>31.10547570582958</v>
@@ -1282,7 +1381,7 @@
         <v>1.014925373134328</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1335,19 +1434,19 @@
         <v>1.499623046426894</v>
       </c>
       <c r="R11">
-        <v>49.50942383932765</v>
+        <v>49.509423839327653</v>
       </c>
       <c r="S11">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="T11">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="U11">
         <v>1.499623046426894</v>
       </c>
       <c r="V11">
-        <v>49.50942383932765</v>
+        <v>49.509423839327653</v>
       </c>
       <c r="W11">
         <v>838</v>
@@ -1360,9 +1459,52 @@
       </c>
       <c r="Z11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12" s="3">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.91476262709284162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0079825798545941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.83544303797468356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.014925373134328</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>